--- a/Data/ROY Data/rookies_17_18.xlsx
+++ b/Data/ROY Data/rookies_17_18.xlsx
@@ -1212,76 +1212,76 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="H2">
-        <v>5516</v>
+        <v>1368</v>
       </c>
       <c r="I2">
-        <v>862</v>
+        <v>174</v>
       </c>
       <c r="J2">
-        <v>1545</v>
+        <v>340</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>531</v>
+        <v>129</v>
       </c>
       <c r="N2">
-        <v>747</v>
+        <v>179</v>
       </c>
       <c r="O2">
-        <v>448</v>
+        <v>118</v>
       </c>
       <c r="P2">
-        <v>1661</v>
+        <v>381</v>
       </c>
       <c r="Q2">
-        <v>618</v>
+        <v>101</v>
       </c>
       <c r="R2">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="S2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="T2">
-        <v>372</v>
+        <v>66</v>
       </c>
       <c r="U2">
-        <v>505</v>
+        <v>138</v>
       </c>
       <c r="V2">
-        <v>2259</v>
+        <v>477</v>
       </c>
       <c r="W2">
-        <v>0.5580000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="X2">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.711</v>
+        <v>0.721</v>
       </c>
       <c r="Z2">
-        <v>25.5</v>
+        <v>19.8</v>
       </c>
       <c r="AA2">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB2">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="AC2">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="s">
         <v>242</v>
@@ -1304,76 +1304,76 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="H3">
-        <v>5211</v>
+        <v>1441</v>
       </c>
       <c r="I3">
-        <v>843</v>
+        <v>234</v>
       </c>
       <c r="J3">
-        <v>1387</v>
+        <v>397</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>458</v>
+        <v>114</v>
       </c>
       <c r="N3">
-        <v>662</v>
+        <v>147</v>
       </c>
       <c r="O3">
-        <v>532</v>
+        <v>144</v>
       </c>
       <c r="P3">
-        <v>1670</v>
+        <v>388</v>
       </c>
       <c r="Q3">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="R3">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="S3">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="T3">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="U3">
-        <v>479</v>
+        <v>147</v>
       </c>
       <c r="V3">
-        <v>2155</v>
+        <v>587</v>
       </c>
       <c r="W3">
-        <v>0.608</v>
+        <v>0.589</v>
       </c>
       <c r="X3">
-        <v>0.169</v>
+        <v>0.333</v>
       </c>
       <c r="Y3">
-        <v>0.6919999999999999</v>
+        <v>0.776</v>
       </c>
       <c r="Z3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA3">
-        <v>9.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB3">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="AC3">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" t="s">
         <v>242</v>
@@ -1396,76 +1396,76 @@
         <v>25</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>107</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>47</v>
-      </c>
-      <c r="H4">
-        <v>640</v>
-      </c>
-      <c r="I4">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>207</v>
-      </c>
-      <c r="K4">
-        <v>22</v>
-      </c>
-      <c r="L4">
-        <v>63</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>74</v>
-      </c>
-      <c r="O4">
-        <v>14</v>
-      </c>
-      <c r="P4">
-        <v>71</v>
-      </c>
-      <c r="Q4">
-        <v>109</v>
-      </c>
-      <c r="R4">
-        <v>24</v>
-      </c>
       <c r="S4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="V4">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="W4">
-        <v>0.435</v>
+        <v>0.273</v>
       </c>
       <c r="X4">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.757</v>
+        <v>0.778</v>
       </c>
       <c r="Z4">
-        <v>13.6</v>
+        <v>5.9</v>
       </c>
       <c r="AA4">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB4">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC4">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" t="s">
         <v>242</v>
@@ -1488,19 +1488,19 @@
         <v>19</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1515,22 +1515,22 @@
         <v>6</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -1539,22 +1539,22 @@
         <v>13</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="Y5">
         <v>0.833</v>
       </c>
       <c r="Z5">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AA5">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AB5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="s">
         <v>242</v>
@@ -1577,76 +1577,76 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="H6">
-        <v>4730</v>
+        <v>1481</v>
       </c>
       <c r="I6">
-        <v>613</v>
+        <v>163</v>
       </c>
       <c r="J6">
-        <v>1277</v>
+        <v>346</v>
       </c>
       <c r="K6">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="L6">
-        <v>614</v>
+        <v>197</v>
       </c>
       <c r="M6">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="N6">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="O6">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="P6">
-        <v>722</v>
+        <v>184</v>
       </c>
       <c r="Q6">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="R6">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="S6">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T6">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="U6">
-        <v>425</v>
+        <v>130</v>
       </c>
       <c r="V6">
-        <v>1582</v>
+        <v>438</v>
       </c>
       <c r="W6">
-        <v>0.48</v>
+        <v>0.471</v>
       </c>
       <c r="X6">
-        <v>0.362</v>
+        <v>0.371</v>
       </c>
       <c r="Y6">
-        <v>0.638</v>
+        <v>0.629</v>
       </c>
       <c r="Z6">
-        <v>23.2</v>
+        <v>20</v>
       </c>
       <c r="AA6">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD6" t="s">
         <v>242</v>
@@ -1669,76 +1669,76 @@
         <v>23</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>3195</v>
+        <v>304</v>
       </c>
       <c r="I7">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>679</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>386</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>35</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>13</v>
+      </c>
+      <c r="U7">
+        <v>18</v>
+      </c>
+      <c r="V7">
         <v>48</v>
       </c>
-      <c r="P7">
-        <v>354</v>
-      </c>
-      <c r="Q7">
-        <v>400</v>
-      </c>
-      <c r="R7">
-        <v>105</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <v>113</v>
-      </c>
-      <c r="U7">
-        <v>285</v>
-      </c>
-      <c r="V7">
-        <v>853</v>
-      </c>
       <c r="W7">
-        <v>0.433</v>
+        <v>0.415</v>
       </c>
       <c r="X7">
-        <v>0.373</v>
+        <v>0.29</v>
       </c>
       <c r="Y7">
-        <v>0.829</v>
+        <v>0.833</v>
       </c>
       <c r="Z7">
-        <v>19.6</v>
+        <v>12.7</v>
       </c>
       <c r="AA7">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" t="s">
         <v>242</v>
@@ -1853,76 +1853,76 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="H9">
-        <v>2159</v>
+        <v>713</v>
       </c>
       <c r="I9">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="J9">
-        <v>693</v>
+        <v>192</v>
       </c>
       <c r="K9">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
         <v>124</v>
       </c>
-      <c r="O9">
-        <v>27</v>
-      </c>
-      <c r="P9">
-        <v>313</v>
-      </c>
       <c r="Q9">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="R9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="U9">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="V9">
-        <v>715</v>
+        <v>175</v>
       </c>
       <c r="W9">
-        <v>0.403</v>
+        <v>0.375</v>
       </c>
       <c r="X9">
-        <v>0.345</v>
+        <v>0.256</v>
       </c>
       <c r="Y9">
-        <v>0.718</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AA9">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="AB9">
         <v>2.3</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD9" t="s">
         <v>242</v>
@@ -1945,76 +1945,76 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>5047</v>
+        <v>1780</v>
       </c>
       <c r="I10">
-        <v>649</v>
+        <v>203</v>
       </c>
       <c r="J10">
-        <v>1661</v>
+        <v>564</v>
       </c>
       <c r="K10">
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="L10">
-        <v>890</v>
+        <v>295</v>
       </c>
       <c r="M10">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N10">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="O10">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="P10">
-        <v>965</v>
+        <v>360</v>
       </c>
       <c r="Q10">
-        <v>1030</v>
+        <v>376</v>
       </c>
       <c r="R10">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="S10">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="T10">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="U10">
-        <v>345</v>
+        <v>117</v>
       </c>
       <c r="V10">
-        <v>1692</v>
+        <v>528</v>
       </c>
       <c r="W10">
-        <v>0.391</v>
+        <v>0.36</v>
       </c>
       <c r="X10">
-        <v>0.342</v>
+        <v>0.305</v>
       </c>
       <c r="Y10">
-        <v>0.479</v>
+        <v>0.451</v>
       </c>
       <c r="Z10">
-        <v>32.4</v>
+        <v>34.2</v>
       </c>
       <c r="AA10">
-        <v>10.8</v>
+        <v>10.2</v>
       </c>
       <c r="AB10">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AC10">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="s">
         <v>242</v>
@@ -2037,76 +2037,76 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>1853</v>
+        <v>809</v>
       </c>
       <c r="I11">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="J11">
-        <v>444</v>
+        <v>185</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>4</v>
       </c>
-      <c r="L11">
-        <v>18</v>
-      </c>
       <c r="M11">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="O11">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="P11">
-        <v>472</v>
+        <v>207</v>
       </c>
       <c r="Q11">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="R11">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="S11">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="T11">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="U11">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="V11">
-        <v>578</v>
+        <v>262</v>
       </c>
       <c r="W11">
-        <v>0.5629999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="X11">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.638</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="Z11">
-        <v>12</v>
+        <v>14.2</v>
       </c>
       <c r="AA11">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AB11">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC11">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD11" t="s">
         <v>242</v>
@@ -2129,73 +2129,70 @@
         <v>25</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>2015</v>
+        <v>578</v>
       </c>
       <c r="I12">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="J12">
-        <v>398</v>
+        <v>126</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="N12">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="O12">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="P12">
-        <v>554</v>
+        <v>180</v>
       </c>
       <c r="Q12">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="R12">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="S12">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T12">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="U12">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="V12">
-        <v>583</v>
+        <v>178</v>
       </c>
       <c r="W12">
-        <v>0.548</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="Y12">
-        <v>0.677</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z12">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="AA12">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AB12">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AC12">
         <v>0.8</v>
@@ -2313,76 +2310,76 @@
         <v>21</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>1143</v>
+        <v>314</v>
       </c>
       <c r="I14">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="J14">
-        <v>539</v>
+        <v>143</v>
       </c>
       <c r="K14">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N14">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>33</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <v>11</v>
       </c>
-      <c r="P14">
-        <v>139</v>
-      </c>
-      <c r="Q14">
-        <v>62</v>
-      </c>
-      <c r="R14">
+      <c r="U14">
         <v>19</v>
       </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14">
-        <v>46</v>
-      </c>
-      <c r="U14">
-        <v>60</v>
-      </c>
       <c r="V14">
-        <v>569</v>
+        <v>151</v>
       </c>
       <c r="W14">
-        <v>0.406</v>
+        <v>0.371</v>
       </c>
       <c r="X14">
-        <v>0.357</v>
+        <v>0.288</v>
       </c>
       <c r="Y14">
-        <v>0.696</v>
+        <v>0.769</v>
       </c>
       <c r="Z14">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA14">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB14">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD14" t="s">
         <v>242</v>
@@ -2405,76 +2402,76 @@
         <v>25</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="H15">
-        <v>5664</v>
+        <v>2175</v>
       </c>
       <c r="I15">
-        <v>990</v>
+        <v>344</v>
       </c>
       <c r="J15">
-        <v>2289</v>
+        <v>772</v>
       </c>
       <c r="K15">
-        <v>406</v>
+        <v>129</v>
       </c>
       <c r="L15">
-        <v>1092</v>
+        <v>329</v>
       </c>
       <c r="M15">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="N15">
-        <v>388</v>
+        <v>119</v>
       </c>
       <c r="O15">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="P15">
-        <v>639</v>
+        <v>223</v>
       </c>
       <c r="Q15">
-        <v>696</v>
+        <v>258</v>
       </c>
       <c r="R15">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="S15">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="T15">
-        <v>332</v>
+        <v>125</v>
       </c>
       <c r="U15">
-        <v>431</v>
+        <v>172</v>
       </c>
       <c r="V15">
-        <v>2698</v>
+        <v>917</v>
       </c>
       <c r="W15">
-        <v>0.433</v>
+        <v>0.446</v>
       </c>
       <c r="X15">
-        <v>0.372</v>
+        <v>0.392</v>
       </c>
       <c r="Y15">
-        <v>0.804</v>
+        <v>0.84</v>
       </c>
       <c r="Z15">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="AA15">
-        <v>13.4</v>
+        <v>11.8</v>
       </c>
       <c r="AB15">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AC15">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD15" t="s">
         <v>242</v>
@@ -2497,76 +2494,73 @@
         <v>25</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>888</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.454</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0.292</v>
-      </c>
-      <c r="Y16">
-        <v>0.805</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>10.6</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="s">
         <v>242</v>
@@ -2589,76 +2583,76 @@
         <v>20</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>63</v>
-      </c>
-      <c r="H17">
-        <v>615</v>
-      </c>
-      <c r="I17">
-        <v>116</v>
-      </c>
       <c r="J17">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>2</v>
       </c>
-      <c r="M17">
-        <v>29</v>
-      </c>
       <c r="N17">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>0.63</v>
+        <v>0.273</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.659</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>9.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="AA17">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="AB17">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="AC17">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="s">
         <v>242</v>
@@ -2681,76 +2675,76 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18">
+        <v>82</v>
+      </c>
+      <c r="H18">
+        <v>2350</v>
+      </c>
+      <c r="I18">
+        <v>340</v>
+      </c>
+      <c r="J18">
+        <v>772</v>
+      </c>
+      <c r="K18">
+        <v>94</v>
+      </c>
+      <c r="L18">
+        <v>264</v>
+      </c>
+      <c r="M18">
+        <v>124</v>
+      </c>
+      <c r="N18">
         <v>166</v>
       </c>
-      <c r="H18">
-        <v>4567</v>
-      </c>
-      <c r="I18">
-        <v>767</v>
-      </c>
-      <c r="J18">
-        <v>1835</v>
-      </c>
-      <c r="K18">
-        <v>243</v>
-      </c>
-      <c r="L18">
-        <v>671</v>
-      </c>
-      <c r="M18">
-        <v>291</v>
-      </c>
-      <c r="N18">
-        <v>376</v>
-      </c>
       <c r="O18">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="P18">
-        <v>505</v>
+        <v>257</v>
       </c>
       <c r="Q18">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="R18">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="S18">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="T18">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="U18">
-        <v>533</v>
+        <v>233</v>
       </c>
       <c r="V18">
-        <v>2068</v>
+        <v>898</v>
       </c>
       <c r="W18">
-        <v>0.418</v>
+        <v>0.44</v>
       </c>
       <c r="X18">
-        <v>0.362</v>
+        <v>0.356</v>
       </c>
       <c r="Y18">
-        <v>0.774</v>
+        <v>0.747</v>
       </c>
       <c r="Z18">
-        <v>27.5</v>
+        <v>28.7</v>
       </c>
       <c r="AA18">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AC18">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD18" t="s">
         <v>242</v>
@@ -2773,76 +2767,76 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="H19">
-        <v>2498</v>
+        <v>776</v>
       </c>
       <c r="I19">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="J19">
-        <v>739</v>
+        <v>205</v>
       </c>
       <c r="K19">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="L19">
-        <v>355</v>
+        <v>91</v>
       </c>
       <c r="M19">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="N19">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="O19">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="P19">
-        <v>498</v>
+        <v>143</v>
       </c>
       <c r="Q19">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="R19">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="S19">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="T19">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="U19">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="V19">
-        <v>815</v>
+        <v>217</v>
       </c>
       <c r="W19">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="X19">
-        <v>0.341</v>
+        <v>0.352</v>
       </c>
       <c r="Y19">
-        <v>0.765</v>
+        <v>0.875</v>
       </c>
       <c r="Z19">
-        <v>15.8</v>
+        <v>14.4</v>
       </c>
       <c r="AA19">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AB19">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD19" t="s">
         <v>242</v>
@@ -2865,76 +2859,76 @@
         <v>20</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>9</v>
+      </c>
+      <c r="O20">
         <v>3</v>
       </c>
-      <c r="G20">
-        <v>126</v>
-      </c>
-      <c r="H20">
-        <v>2502</v>
-      </c>
-      <c r="I20">
-        <v>505</v>
-      </c>
-      <c r="J20">
-        <v>842</v>
-      </c>
-      <c r="K20">
-        <v>57</v>
-      </c>
-      <c r="L20">
-        <v>167</v>
-      </c>
-      <c r="M20">
-        <v>183</v>
-      </c>
-      <c r="N20">
-        <v>243</v>
-      </c>
-      <c r="O20">
-        <v>192</v>
-      </c>
       <c r="P20">
-        <v>738</v>
+        <v>17</v>
       </c>
       <c r="Q20">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>1250</v>
+        <v>22</v>
       </c>
       <c r="W20">
-        <v>0.6</v>
+        <v>0.381</v>
       </c>
       <c r="X20">
-        <v>0.341</v>
+        <v>0.1</v>
       </c>
       <c r="Y20">
-        <v>0.753</v>
+        <v>0.556</v>
       </c>
       <c r="Z20">
-        <v>19.9</v>
+        <v>4.8</v>
       </c>
       <c r="AA20">
-        <v>9.9</v>
+        <v>1.5</v>
       </c>
       <c r="AB20">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="AC20">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="s">
         <v>242</v>
@@ -2957,76 +2951,76 @@
         <v>23</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2153</v>
+        <v>562</v>
       </c>
       <c r="I21">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>556</v>
+        <v>116</v>
       </c>
       <c r="K21">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>21</v>
+      </c>
+      <c r="N21">
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>65</v>
+      </c>
+      <c r="Q21">
         <v>75</v>
       </c>
-      <c r="L21">
-        <v>202</v>
-      </c>
-      <c r="M21">
-        <v>133</v>
-      </c>
-      <c r="N21">
-        <v>176</v>
-      </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
-      <c r="P21">
-        <v>248</v>
-      </c>
-      <c r="Q21">
-        <v>256</v>
-      </c>
       <c r="R21">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="S21">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="T21">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="U21">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="V21">
-        <v>686</v>
+        <v>134</v>
       </c>
       <c r="W21">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="X21">
-        <v>0.371</v>
+        <v>0.302</v>
       </c>
       <c r="Y21">
-        <v>0.756</v>
+        <v>0.7</v>
       </c>
       <c r="Z21">
-        <v>17.8</v>
+        <v>15.2</v>
       </c>
       <c r="AA21">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB21">
+        <v>1.8</v>
+      </c>
+      <c r="AC21">
         <v>2</v>
-      </c>
-      <c r="AC21">
-        <v>2.1</v>
       </c>
       <c r="AD21" t="s">
         <v>242</v>
@@ -3049,40 +3043,40 @@
         <v>23</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="I22">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J22">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O22">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P22">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R22">
         <v>9</v>
@@ -3091,34 +3085,34 @@
         <v>4</v>
       </c>
       <c r="T22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U22">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V22">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="W22">
-        <v>0.432</v>
+        <v>0.441</v>
       </c>
       <c r="X22">
-        <v>0.351</v>
+        <v>0.36</v>
       </c>
       <c r="Y22">
-        <v>0.826</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z22">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="AA22">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="AB22">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC22">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD22" t="s">
         <v>242</v>
@@ -3233,73 +3227,73 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J24">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W24">
-        <v>0.37</v>
+        <v>0.381</v>
       </c>
       <c r="X24">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Y24">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="Z24">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AA24">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AB24">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
         <v>0.1</v>
@@ -3325,76 +3319,76 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
+        <v>74</v>
+      </c>
+      <c r="H25">
+        <v>1785</v>
+      </c>
+      <c r="I25">
+        <v>314</v>
+      </c>
+      <c r="J25">
+        <v>545</v>
+      </c>
+      <c r="K25">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>47</v>
+      </c>
+      <c r="M25">
+        <v>133</v>
+      </c>
+      <c r="N25">
+        <v>186</v>
+      </c>
+      <c r="O25">
         <v>176</v>
       </c>
-      <c r="H25">
-        <v>4977</v>
-      </c>
-      <c r="I25">
-        <v>1132</v>
-      </c>
-      <c r="J25">
-        <v>1981</v>
-      </c>
-      <c r="K25">
-        <v>130</v>
-      </c>
-      <c r="L25">
-        <v>352</v>
-      </c>
-      <c r="M25">
-        <v>456</v>
-      </c>
-      <c r="N25">
-        <v>602</v>
-      </c>
-      <c r="O25">
-        <v>511</v>
-      </c>
       <c r="P25">
-        <v>1552</v>
+        <v>541</v>
       </c>
       <c r="Q25">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="R25">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="S25">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="T25">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="U25">
-        <v>552</v>
+        <v>215</v>
       </c>
       <c r="V25">
-        <v>2850</v>
+        <v>777</v>
       </c>
       <c r="W25">
-        <v>0.571</v>
+        <v>0.576</v>
       </c>
       <c r="X25">
-        <v>0.369</v>
+        <v>0.34</v>
       </c>
       <c r="Y25">
-        <v>0.757</v>
+        <v>0.715</v>
       </c>
       <c r="Z25">
-        <v>28.3</v>
+        <v>24.1</v>
       </c>
       <c r="AA25">
-        <v>16.2</v>
+        <v>10.5</v>
       </c>
       <c r="AB25">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="AC25">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD25" t="s">
         <v>242</v>
@@ -3417,76 +3411,76 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="H26">
-        <v>2524</v>
+        <v>1045</v>
       </c>
       <c r="I26">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="J26">
-        <v>717</v>
+        <v>289</v>
       </c>
       <c r="K26">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L26">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="M26">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="O26">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="P26">
-        <v>566</v>
+        <v>221</v>
       </c>
       <c r="Q26">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="R26">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="S26">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="T26">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="U26">
-        <v>324</v>
+        <v>133</v>
       </c>
       <c r="V26">
-        <v>838</v>
+        <v>292</v>
       </c>
       <c r="W26">
-        <v>0.441</v>
+        <v>0.398</v>
       </c>
       <c r="X26">
-        <v>0.324</v>
+        <v>0.31</v>
       </c>
       <c r="Y26">
-        <v>0.73</v>
+        <v>0.643</v>
       </c>
       <c r="Z26">
-        <v>17.2</v>
+        <v>15.8</v>
       </c>
       <c r="AA26">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB26">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AC26">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD26" t="s">
         <v>242</v>
@@ -3779,76 +3773,76 @@
         <v>27</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>3001</v>
+        <v>629</v>
       </c>
       <c r="I30">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="J30">
-        <v>707</v>
+        <v>137</v>
       </c>
       <c r="K30">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="L30">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="N30">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="O30">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="P30">
-        <v>546</v>
+        <v>127</v>
       </c>
       <c r="Q30">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="R30">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="S30">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="T30">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="U30">
-        <v>350</v>
+        <v>63</v>
       </c>
       <c r="V30">
-        <v>841</v>
+        <v>163</v>
       </c>
       <c r="W30">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="X30">
-        <v>0.321</v>
+        <v>0.293</v>
       </c>
       <c r="Y30">
-        <v>0.669</v>
+        <v>0.629</v>
       </c>
       <c r="Z30">
-        <v>18.3</v>
+        <v>16.1</v>
       </c>
       <c r="AA30">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="AB30">
         <v>3.3</v>
       </c>
       <c r="AC30">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD30" t="s">
         <v>242</v>
@@ -3871,76 +3865,76 @@
         <v>21</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="H31">
-        <v>1672</v>
+        <v>974</v>
       </c>
       <c r="I31">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="J31">
-        <v>646</v>
+        <v>382</v>
       </c>
       <c r="K31">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L31">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="M31">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="N31">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="O31">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="P31">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="Q31">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="R31">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="S31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="U31">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="V31">
-        <v>701</v>
+        <v>405</v>
       </c>
       <c r="W31">
-        <v>0.389</v>
+        <v>0.377</v>
       </c>
       <c r="X31">
-        <v>0.35</v>
+        <v>0.362</v>
       </c>
       <c r="Y31">
-        <v>0.669</v>
+        <v>0.714</v>
       </c>
       <c r="Z31">
-        <v>16.1</v>
+        <v>17.4</v>
       </c>
       <c r="AA31">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AB31">
         <v>2.3</v>
       </c>
       <c r="AC31">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD31" t="s">
         <v>242</v>
@@ -3963,76 +3957,76 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>3314</v>
+        <v>474</v>
       </c>
       <c r="I32">
-        <v>482</v>
+        <v>72</v>
       </c>
       <c r="J32">
-        <v>1149</v>
+        <v>161</v>
       </c>
       <c r="K32">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="L32">
-        <v>573</v>
+        <v>68</v>
       </c>
       <c r="M32">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="N32">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="O32">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="P32">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="Q32">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="R32">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="S32">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="U32">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="V32">
-        <v>1282</v>
+        <v>182</v>
       </c>
       <c r="W32">
-        <v>0.419</v>
+        <v>0.447</v>
       </c>
       <c r="X32">
-        <v>0.361</v>
+        <v>0.324</v>
       </c>
       <c r="Y32">
-        <v>0.721</v>
+        <v>0.696</v>
       </c>
       <c r="Z32">
-        <v>20.1</v>
+        <v>10.8</v>
       </c>
       <c r="AA32">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="AB32">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC32">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD32" t="s">
         <v>242</v>
@@ -4147,76 +4141,70 @@
         <v>21</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="G34">
-        <v>29</v>
-      </c>
-      <c r="H34">
-        <v>288</v>
-      </c>
       <c r="I34">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>0.395</v>
-      </c>
-      <c r="X34">
-        <v>0.25</v>
-      </c>
-      <c r="Y34">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="Z34">
-        <v>9.9</v>
+        <v>1.5</v>
       </c>
       <c r="AA34">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="AC34">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="s">
         <v>242</v>
@@ -4239,25 +4227,25 @@
         <v>21</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H35">
-        <v>843</v>
+        <v>778</v>
       </c>
       <c r="I35">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J35">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="K35">
         <v>15</v>
       </c>
       <c r="L35">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M35">
         <v>38</v>
@@ -4266,49 +4254,49 @@
         <v>49</v>
       </c>
       <c r="O35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P35">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="Q35">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="R35">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S35">
         <v>6</v>
       </c>
       <c r="T35">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U35">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="V35">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="W35">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="X35">
-        <v>0.263</v>
+        <v>0.278</v>
       </c>
       <c r="Y35">
         <v>0.776</v>
       </c>
       <c r="Z35">
-        <v>15.1</v>
+        <v>16.2</v>
       </c>
       <c r="AA35">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB35">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD35" t="s">
         <v>242</v>
@@ -4331,76 +4319,76 @@
         <v>19</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="H36">
-        <v>3864</v>
+        <v>763</v>
       </c>
       <c r="I36">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="J36">
-        <v>799</v>
+        <v>169</v>
       </c>
       <c r="K36">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="L36">
-        <v>565</v>
+        <v>120</v>
       </c>
       <c r="M36">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="O36">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="P36">
-        <v>261</v>
+        <v>47</v>
       </c>
       <c r="Q36">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="R36">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="S36">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="T36">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="U36">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="V36">
-        <v>911</v>
+        <v>189</v>
       </c>
       <c r="W36">
-        <v>0.412</v>
+        <v>0.414</v>
       </c>
       <c r="X36">
-        <v>0.34</v>
+        <v>0.333</v>
       </c>
       <c r="Y36">
-        <v>0.763</v>
+        <v>0.9</v>
       </c>
       <c r="Z36">
-        <v>20.9</v>
+        <v>12.5</v>
       </c>
       <c r="AA36">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB36">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC36">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD36" t="s">
         <v>242</v>
@@ -4423,76 +4411,76 @@
         <v>20</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="H37">
-        <v>6036</v>
+        <v>2026</v>
       </c>
       <c r="I37">
-        <v>1179</v>
+        <v>328</v>
       </c>
       <c r="J37">
-        <v>2624</v>
+        <v>797</v>
       </c>
       <c r="K37">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="L37">
-        <v>545</v>
+        <v>153</v>
       </c>
       <c r="M37">
-        <v>663</v>
+        <v>141</v>
       </c>
       <c r="N37">
-        <v>923</v>
+        <v>195</v>
       </c>
       <c r="O37">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="P37">
-        <v>692</v>
+        <v>204</v>
       </c>
       <c r="Q37">
-        <v>1220</v>
+        <v>320</v>
       </c>
       <c r="R37">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="S37">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="T37">
-        <v>544</v>
+        <v>173</v>
       </c>
       <c r="U37">
-        <v>499</v>
+        <v>163</v>
       </c>
       <c r="V37">
-        <v>3202</v>
+        <v>844</v>
       </c>
       <c r="W37">
-        <v>0.449</v>
+        <v>0.412</v>
       </c>
       <c r="X37">
-        <v>0.332</v>
+        <v>0.307</v>
       </c>
       <c r="Y37">
-        <v>0.718</v>
+        <v>0.723</v>
       </c>
       <c r="Z37">
-        <v>30.2</v>
+        <v>27.8</v>
       </c>
       <c r="AA37">
-        <v>16</v>
+        <v>11.6</v>
       </c>
       <c r="AB37">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AC37">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="AD37" t="s">
         <v>242</v>
@@ -4515,76 +4503,76 @@
         <v>19</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H38">
-        <v>2512</v>
+        <v>253</v>
       </c>
       <c r="I38">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="J38">
-        <v>951</v>
+        <v>111</v>
       </c>
       <c r="K38">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="O38">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="P38">
-        <v>328</v>
+        <v>43</v>
       </c>
       <c r="Q38">
-        <v>452</v>
+        <v>53</v>
       </c>
       <c r="R38">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="S38">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="U38">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="V38">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="W38">
-        <v>0.456</v>
+        <v>0.405</v>
       </c>
       <c r="X38">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.668</v>
+        <v>0.476</v>
       </c>
       <c r="Z38">
-        <v>25.6</v>
+        <v>18.1</v>
       </c>
       <c r="AA38">
-        <v>10.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB38">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AC38">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD38" t="s">
         <v>242</v>
@@ -4607,19 +4595,19 @@
         <v>24</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4634,13 +4622,13 @@
         <v>11</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
         <v>12</v>
-      </c>
-      <c r="Q39">
-        <v>14</v>
       </c>
       <c r="R39">
         <v>8</v>
@@ -4649,16 +4637,16 @@
         <v>2</v>
       </c>
       <c r="T39">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="U39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V39">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W39">
-        <v>0.279</v>
+        <v>0.268</v>
       </c>
       <c r="X39">
         <v>0.231</v>
@@ -4667,16 +4655,16 @@
         <v>0.636</v>
       </c>
       <c r="Z39">
-        <v>15.6</v>
+        <v>17.2</v>
       </c>
       <c r="AA39">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="AB39">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AC39">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AD39" t="s">
         <v>242</v>
@@ -4699,76 +4687,73 @@
         <v>22</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>28</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>25</v>
-      </c>
-      <c r="H40">
-        <v>232</v>
-      </c>
-      <c r="I40">
-        <v>28</v>
-      </c>
-      <c r="J40">
-        <v>71</v>
-      </c>
-      <c r="K40">
-        <v>10</v>
-      </c>
       <c r="L40">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="W40">
-        <v>0.394</v>
+        <v>0.455</v>
       </c>
       <c r="X40">
-        <v>0.357</v>
-      </c>
-      <c r="Y40">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Z40">
-        <v>9.300000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="AA40">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AB40">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD40" t="s">
         <v>242</v>
@@ -4791,76 +4776,76 @@
         <v>24</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="H41">
-        <v>2298</v>
+        <v>384</v>
       </c>
       <c r="I41">
-        <v>320</v>
+        <v>59</v>
       </c>
       <c r="J41">
-        <v>715</v>
+        <v>124</v>
       </c>
       <c r="K41">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="O41">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="P41">
-        <v>369</v>
+        <v>61</v>
       </c>
       <c r="Q41">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="R41">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="S41">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="T41">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="U41">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="V41">
-        <v>835</v>
+        <v>152</v>
       </c>
       <c r="W41">
-        <v>0.448</v>
+        <v>0.476</v>
       </c>
       <c r="X41">
-        <v>0.293</v>
+        <v>0.231</v>
       </c>
       <c r="Y41">
-        <v>0.706</v>
+        <v>0.737</v>
       </c>
       <c r="Z41">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="AA41">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AB41">
         <v>2.7</v>
       </c>
       <c r="AC41">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD41" t="s">
         <v>242</v>
@@ -4883,76 +4868,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="H42">
-        <v>4761</v>
+        <v>1461</v>
       </c>
       <c r="I42">
-        <v>569</v>
+        <v>176</v>
       </c>
       <c r="J42">
-        <v>1327</v>
+        <v>375</v>
       </c>
       <c r="K42">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="L42">
-        <v>799</v>
+        <v>197</v>
       </c>
       <c r="M42">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="N42">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="O42">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="P42">
-        <v>884</v>
+        <v>263</v>
       </c>
       <c r="Q42">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="R42">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="S42">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="T42">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="U42">
-        <v>401</v>
+        <v>107</v>
       </c>
       <c r="V42">
-        <v>1610</v>
+        <v>496</v>
       </c>
       <c r="W42">
-        <v>0.429</v>
+        <v>0.469</v>
       </c>
       <c r="X42">
-        <v>0.354</v>
+        <v>0.396</v>
       </c>
       <c r="Y42">
-        <v>0.711</v>
+        <v>0.702</v>
       </c>
       <c r="Z42">
-        <v>25.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA42">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="AB42">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AC42">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD42" t="s">
         <v>242</v>
@@ -5248,19 +5233,19 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H46">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="I46">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J46">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -5269,46 +5254,46 @@
         <v>9</v>
       </c>
       <c r="M46">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>18</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46">
+        <v>41</v>
+      </c>
+      <c r="Q46">
         <v>16</v>
       </c>
-      <c r="N46">
-        <v>23</v>
-      </c>
-      <c r="O46">
-        <v>12</v>
-      </c>
-      <c r="P46">
-        <v>48</v>
-      </c>
-      <c r="Q46">
-        <v>18</v>
-      </c>
       <c r="R46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U46">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V46">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="W46">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="X46">
         <v>0.222</v>
       </c>
       <c r="Y46">
-        <v>0.696</v>
+        <v>0.667</v>
       </c>
       <c r="Z46">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="AA46">
         <v>4.4</v>
@@ -5340,13 +5325,13 @@
         <v>29</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H47">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I47">
         <v>17</v>
@@ -5400,10 +5385,10 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="Z47">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AA47">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AB47">
         <v>1</v>
@@ -5518,25 +5503,25 @@
         <v>32</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
       <c r="H49">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I49">
         <v>8</v>
       </c>
       <c r="J49">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K49">
         <v>5</v>
       </c>
       <c r="L49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M49">
         <v>3</v>
@@ -5545,22 +5530,22 @@
         <v>3</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q49">
         <v>7</v>
       </c>
       <c r="R49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S49">
         <v>3</v>
       </c>
       <c r="T49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U49">
         <v>3</v>
@@ -5569,25 +5554,25 @@
         <v>24</v>
       </c>
       <c r="W49">
-        <v>0.348</v>
+        <v>0.471</v>
       </c>
       <c r="X49">
-        <v>0.417</v>
+        <v>0.556</v>
       </c>
       <c r="Y49">
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>13.2</v>
+        <v>32</v>
       </c>
       <c r="AA49">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AB49">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="AC49">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="AD49" t="s">
         <v>242</v>
@@ -5610,76 +5595,76 @@
         <v>20</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="H50">
-        <v>3497</v>
+        <v>536</v>
       </c>
       <c r="I50">
-        <v>472</v>
+        <v>55</v>
       </c>
       <c r="J50">
-        <v>1085</v>
+        <v>145</v>
       </c>
       <c r="K50">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="L50">
-        <v>405</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="N50">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="O50">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="P50">
-        <v>738</v>
+        <v>99</v>
       </c>
       <c r="Q50">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="R50">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="S50">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="T50">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="U50">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="V50">
-        <v>1265</v>
+        <v>145</v>
       </c>
       <c r="W50">
-        <v>0.435</v>
+        <v>0.379</v>
       </c>
       <c r="X50">
-        <v>0.331</v>
+        <v>0.348</v>
       </c>
       <c r="Y50">
-        <v>0.796</v>
+        <v>0.76</v>
       </c>
       <c r="Z50">
-        <v>25.9</v>
+        <v>19.9</v>
       </c>
       <c r="AA50">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="AB50">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="AC50">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD50" t="s">
         <v>242</v>
@@ -5702,76 +5687,76 @@
         <v>23</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="H51">
-        <v>3063</v>
+        <v>1020</v>
       </c>
       <c r="I51">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="J51">
-        <v>686</v>
+        <v>218</v>
       </c>
       <c r="K51">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="L51">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="N51">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="O51">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="P51">
-        <v>434</v>
+        <v>137</v>
       </c>
       <c r="Q51">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="R51">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="S51">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="T51">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="U51">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="V51">
-        <v>805</v>
+        <v>229</v>
       </c>
       <c r="W51">
-        <v>0.413</v>
+        <v>0.427</v>
       </c>
       <c r="X51">
-        <v>0.307</v>
+        <v>0.196</v>
       </c>
       <c r="Y51">
-        <v>0.796</v>
+        <v>0.723</v>
       </c>
       <c r="Z51">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA51">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB51">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD51" t="s">
         <v>242</v>
@@ -5886,76 +5871,76 @@
         <v>20</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="H53">
-        <v>4317</v>
+        <v>1959</v>
       </c>
       <c r="I53">
-        <v>806</v>
+        <v>389</v>
       </c>
       <c r="J53">
-        <v>1932</v>
+        <v>932</v>
       </c>
       <c r="K53">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="L53">
-        <v>514</v>
+        <v>217</v>
       </c>
       <c r="M53">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="N53">
-        <v>540</v>
+        <v>279</v>
       </c>
       <c r="O53">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="P53">
-        <v>762</v>
+        <v>351</v>
       </c>
       <c r="Q53">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="R53">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="S53">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="T53">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="U53">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="V53">
-        <v>2118</v>
+        <v>1012</v>
       </c>
       <c r="W53">
         <v>0.417</v>
       </c>
       <c r="X53">
-        <v>0.298</v>
+        <v>0.263</v>
       </c>
       <c r="Y53">
-        <v>0.654</v>
+        <v>0.634</v>
       </c>
       <c r="Z53">
-        <v>24.7</v>
+        <v>25.4</v>
       </c>
       <c r="AA53">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="AB53">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AC53">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD53" t="s">
         <v>242</v>
@@ -5978,73 +5963,73 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="H54">
-        <v>4057</v>
+        <v>1506</v>
       </c>
       <c r="I54">
-        <v>526</v>
+        <v>185</v>
       </c>
       <c r="J54">
-        <v>1216</v>
+        <v>419</v>
       </c>
       <c r="K54">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="L54">
-        <v>581</v>
+        <v>185</v>
       </c>
       <c r="M54">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="N54">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="O54">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="P54">
-        <v>542</v>
+        <v>187</v>
       </c>
       <c r="Q54">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="R54">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="S54">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="T54">
+        <v>40</v>
+      </c>
+      <c r="U54">
         <v>81</v>
       </c>
-      <c r="U54">
-        <v>238</v>
-      </c>
       <c r="V54">
-        <v>1365</v>
+        <v>453</v>
       </c>
       <c r="W54">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
       <c r="X54">
-        <v>0.325</v>
+        <v>0.308</v>
       </c>
       <c r="Y54">
-        <v>0.78</v>
+        <v>0.722</v>
       </c>
       <c r="Z54">
-        <v>19.5</v>
+        <v>22.1</v>
       </c>
       <c r="AA54">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB54">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AC54">
         <v>1.1</v>
@@ -6340,73 +6325,73 @@
         <v>24</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H58">
-        <v>395</v>
+        <v>181</v>
       </c>
       <c r="I58">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J58">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L58">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="N58">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O58">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P58">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="Q58">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R58">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="U58">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="V58">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="W58">
-        <v>0.4</v>
+        <v>0.382</v>
       </c>
       <c r="X58">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="Y58">
-        <v>0.674</v>
+        <v>0.632</v>
       </c>
       <c r="Z58">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="AA58">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AB58">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC58">
         <v>0.3</v>
@@ -6432,76 +6417,76 @@
         <v>21</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="H59">
-        <v>3822</v>
+        <v>1463</v>
       </c>
       <c r="I59">
-        <v>585</v>
+        <v>206</v>
       </c>
       <c r="J59">
-        <v>1327</v>
+        <v>465</v>
       </c>
       <c r="K59">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="L59">
-        <v>647</v>
+        <v>195</v>
       </c>
       <c r="M59">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="N59">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="O59">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="P59">
-        <v>457</v>
+        <v>176</v>
       </c>
       <c r="Q59">
-        <v>353</v>
+        <v>124</v>
       </c>
       <c r="R59">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="S59">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="T59">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="U59">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="V59">
-        <v>1613</v>
+        <v>558</v>
       </c>
       <c r="W59">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="X59">
-        <v>0.402</v>
+        <v>0.415</v>
       </c>
       <c r="Y59">
-        <v>0.867</v>
+        <v>0.855</v>
       </c>
       <c r="Z59">
-        <v>23.3</v>
+        <v>20</v>
       </c>
       <c r="AA59">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AB59">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC59">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD59" t="s">
         <v>242</v>
@@ -6524,76 +6509,76 @@
         <v>26</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="H60">
-        <v>4437</v>
+        <v>1206</v>
       </c>
       <c r="I60">
-        <v>542</v>
+        <v>151</v>
       </c>
       <c r="J60">
-        <v>1166</v>
+        <v>309</v>
       </c>
       <c r="K60">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="L60">
-        <v>635</v>
+        <v>128</v>
       </c>
       <c r="M60">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="N60">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="O60">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="P60">
-        <v>925</v>
+        <v>234</v>
       </c>
       <c r="Q60">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="R60">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="S60">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="T60">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="U60">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="V60">
-        <v>1482</v>
+        <v>386</v>
       </c>
       <c r="W60">
-        <v>0.465</v>
+        <v>0.489</v>
       </c>
       <c r="X60">
-        <v>0.354</v>
+        <v>0.313</v>
       </c>
       <c r="Y60">
-        <v>0.805</v>
+        <v>0.746</v>
       </c>
       <c r="Z60">
-        <v>21.1</v>
+        <v>16.8</v>
       </c>
       <c r="AA60">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="AB60">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD60" t="s">
         <v>242</v>
@@ -6616,76 +6601,76 @@
         <v>20</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H61">
-        <v>2157</v>
+        <v>80</v>
       </c>
       <c r="I61">
-        <v>328</v>
+        <v>8</v>
       </c>
       <c r="J61">
-        <v>787</v>
+        <v>28</v>
       </c>
       <c r="K61">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="L61">
-        <v>478</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="P61">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="Q61">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="R61">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="V61">
-        <v>925</v>
+        <v>23</v>
       </c>
       <c r="W61">
-        <v>0.417</v>
+        <v>0.286</v>
       </c>
       <c r="X61">
-        <v>0.372</v>
+        <v>0.294</v>
       </c>
       <c r="Y61">
-        <v>0.758</v>
+        <v>0.5</v>
       </c>
       <c r="Z61">
-        <v>17.1</v>
+        <v>5.7</v>
       </c>
       <c r="AA61">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="AB61">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD61" t="s">
         <v>242</v>
@@ -6708,76 +6693,76 @@
         <v>22</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="H62">
-        <v>1669</v>
+        <v>326</v>
       </c>
       <c r="I62">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="J62">
-        <v>595</v>
+        <v>125</v>
       </c>
       <c r="K62">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="L62">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="M62">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="O62">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P62">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="Q62">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="R62">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="S62">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="T62">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="U62">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="V62">
-        <v>671</v>
+        <v>134</v>
       </c>
       <c r="W62">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="X62">
-        <v>0.339</v>
+        <v>0.354</v>
       </c>
       <c r="Y62">
-        <v>0.776</v>
+        <v>0.727</v>
       </c>
       <c r="Z62">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="AA62">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB62">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC62">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD62" t="s">
         <v>242</v>
@@ -6800,76 +6785,76 @@
         <v>22</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="H63">
-        <v>6074</v>
+        <v>2401</v>
       </c>
       <c r="I63">
-        <v>1222</v>
+        <v>468</v>
       </c>
       <c r="J63">
-        <v>2722</v>
+        <v>1039</v>
       </c>
       <c r="K63">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="L63">
-        <v>1099</v>
+        <v>434</v>
       </c>
       <c r="M63">
-        <v>435</v>
+        <v>147</v>
       </c>
       <c r="N63">
-        <v>593</v>
+        <v>208</v>
       </c>
       <c r="O63">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="P63">
-        <v>1114</v>
+        <v>483</v>
       </c>
       <c r="Q63">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="R63">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="S63">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="T63">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="U63">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="V63">
-        <v>3240</v>
+        <v>1242</v>
       </c>
       <c r="W63">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="X63">
-        <v>0.328</v>
+        <v>0.366</v>
       </c>
       <c r="Y63">
-        <v>0.734</v>
+        <v>0.707</v>
       </c>
       <c r="Z63">
-        <v>30.1</v>
+        <v>31.2</v>
       </c>
       <c r="AA63">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="AB63">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="AC63">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD63" t="s">
         <v>242</v>
@@ -6892,76 +6877,76 @@
         <v>20</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64">
+        <v>53</v>
+      </c>
+      <c r="H64">
+        <v>459</v>
+      </c>
+      <c r="I64">
+        <v>64</v>
+      </c>
+      <c r="J64">
         <v>136</v>
       </c>
-      <c r="H64">
-        <v>1174</v>
-      </c>
-      <c r="I64">
-        <v>193</v>
-      </c>
-      <c r="J64">
-        <v>388</v>
-      </c>
       <c r="K64">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L64">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="M64">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="N64">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="O64">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="P64">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="Q64">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R64">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="S64">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="T64">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U64">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="V64">
-        <v>453</v>
+        <v>156</v>
       </c>
       <c r="W64">
-        <v>0.497</v>
+        <v>0.471</v>
       </c>
       <c r="X64">
-        <v>0.356</v>
+        <v>0.429</v>
       </c>
       <c r="Y64">
-        <v>0.61</v>
+        <v>0.625</v>
       </c>
       <c r="Z64">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA64">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AB64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC64">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD64" t="s">
         <v>242</v>
@@ -6984,76 +6969,76 @@
         <v>25</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="H65">
-        <v>2202</v>
+        <v>404</v>
       </c>
       <c r="I65">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="J65">
-        <v>790</v>
+        <v>152</v>
       </c>
       <c r="K65">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="L65">
-        <v>367</v>
+        <v>60</v>
       </c>
       <c r="M65">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="N65">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="O65">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P65">
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="Q65">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="R65">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="S65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="U65">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="V65">
-        <v>940</v>
+        <v>161</v>
       </c>
       <c r="W65">
-        <v>0.419</v>
+        <v>0.408</v>
       </c>
       <c r="X65">
-        <v>0.346</v>
+        <v>0.25</v>
       </c>
       <c r="Y65">
-        <v>0.853</v>
+        <v>0.759</v>
       </c>
       <c r="Z65">
-        <v>22.9</v>
+        <v>26.9</v>
       </c>
       <c r="AA65">
-        <v>9.800000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="AB65">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="AC65">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD65" t="s">
         <v>242</v>
@@ -7076,76 +7061,76 @@
         <v>25</v>
       </c>
       <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>35</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>16</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
         <v>2</v>
       </c>
-      <c r="G66">
-        <v>11</v>
-      </c>
-      <c r="H66">
-        <v>202</v>
-      </c>
-      <c r="I66">
-        <v>45</v>
-      </c>
-      <c r="J66">
-        <v>103</v>
-      </c>
-      <c r="K66">
+      <c r="N66">
         <v>3</v>
       </c>
-      <c r="L66">
-        <v>6</v>
-      </c>
-      <c r="M66">
-        <v>10</v>
-      </c>
-      <c r="N66">
-        <v>14</v>
-      </c>
       <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
         <v>4</v>
       </c>
-      <c r="P66">
-        <v>29</v>
-      </c>
-      <c r="Q66">
-        <v>35</v>
-      </c>
-      <c r="R66">
-        <v>11</v>
-      </c>
-      <c r="S66">
-        <v>2</v>
-      </c>
-      <c r="T66">
-        <v>14</v>
-      </c>
       <c r="U66">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="V66">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="W66">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="X66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y66">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="Z66">
-        <v>18.4</v>
+        <v>7</v>
       </c>
       <c r="AA66">
-        <v>9.4</v>
+        <v>3.4</v>
       </c>
       <c r="AB66">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="AC66">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="AD66" t="s">
         <v>242</v>
@@ -7168,76 +7153,67 @@
         <v>21</v>
       </c>
       <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <v>2</v>
       </c>
-      <c r="G67">
-        <v>26</v>
-      </c>
-      <c r="H67">
-        <v>96</v>
-      </c>
       <c r="I67">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
         <v>2</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>4</v>
-      </c>
-      <c r="U67">
-        <v>10</v>
-      </c>
-      <c r="V67">
-        <v>23</v>
-      </c>
-      <c r="W67">
-        <v>0.5</v>
-      </c>
-      <c r="X67">
-        <v>0.4</v>
-      </c>
-      <c r="Y67">
-        <v>0.333</v>
-      </c>
-      <c r="Z67">
-        <v>3.7</v>
-      </c>
       <c r="AA67">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AB67">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="s">
         <v>242</v>
@@ -7260,76 +7236,76 @@
         <v>28</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>18</v>
+      </c>
+      <c r="H68">
+        <v>216</v>
+      </c>
+      <c r="I68">
+        <v>15</v>
+      </c>
+      <c r="J68">
+        <v>46</v>
+      </c>
+      <c r="K68">
+        <v>8</v>
+      </c>
+      <c r="L68">
+        <v>22</v>
+      </c>
+      <c r="M68">
+        <v>8</v>
+      </c>
+      <c r="N68">
+        <v>8</v>
+      </c>
+      <c r="O68">
         <v>2</v>
       </c>
-      <c r="G68">
-        <v>26</v>
-      </c>
-      <c r="H68">
-        <v>254</v>
-      </c>
-      <c r="I68">
-        <v>20</v>
-      </c>
-      <c r="J68">
-        <v>61</v>
-      </c>
-      <c r="K68">
+      <c r="P68">
+        <v>19</v>
+      </c>
+      <c r="Q68">
+        <v>57</v>
+      </c>
+      <c r="R68">
+        <v>8</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
         <v>9</v>
       </c>
-      <c r="L68">
-        <v>26</v>
-      </c>
-      <c r="M68">
-        <v>9</v>
-      </c>
-      <c r="N68">
-        <v>10</v>
-      </c>
-      <c r="O68">
-        <v>3</v>
-      </c>
-      <c r="P68">
-        <v>25</v>
-      </c>
-      <c r="Q68">
-        <v>62</v>
-      </c>
-      <c r="R68">
-        <v>11</v>
-      </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
-      <c r="T68">
-        <v>14</v>
-      </c>
       <c r="U68">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V68">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="W68">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="X68">
-        <v>0.346</v>
+        <v>0.364</v>
       </c>
       <c r="Y68">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Z68">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AA68">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC68">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD68" t="s">
         <v>242</v>
@@ -7352,76 +7328,76 @@
         <v>20</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="H69">
-        <v>5194</v>
+        <v>2020</v>
       </c>
       <c r="I69">
-        <v>967</v>
+        <v>374</v>
       </c>
       <c r="J69">
-        <v>2248</v>
+        <v>862</v>
       </c>
       <c r="K69">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="L69">
-        <v>1050</v>
+        <v>401</v>
       </c>
       <c r="M69">
-        <v>436</v>
+        <v>140</v>
       </c>
       <c r="N69">
-        <v>514</v>
+        <v>166</v>
       </c>
       <c r="O69">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="P69">
-        <v>1291</v>
+        <v>508</v>
       </c>
       <c r="Q69">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="R69">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="S69">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="T69">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="U69">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="V69">
-        <v>2744</v>
+        <v>1033</v>
       </c>
       <c r="W69">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="X69">
-        <v>0.356</v>
+        <v>0.362</v>
       </c>
       <c r="Y69">
-        <v>0.848</v>
+        <v>0.843</v>
       </c>
       <c r="Z69">
-        <v>30.6</v>
+        <v>29.7</v>
       </c>
       <c r="AA69">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="AB69">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC69">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD69" t="s">
         <v>242</v>
@@ -7444,76 +7420,76 @@
         <v>23</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H70">
-        <v>1472</v>
+        <v>984</v>
       </c>
       <c r="I70">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="J70">
-        <v>568</v>
+        <v>380</v>
       </c>
       <c r="K70">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L70">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="M70">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="N70">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="O70">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P70">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="Q70">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="R70">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S70">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T70">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="U70">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="V70">
-        <v>622</v>
+        <v>413</v>
       </c>
       <c r="W70">
-        <v>0.387</v>
+        <v>0.379</v>
       </c>
       <c r="X70">
-        <v>0.294</v>
+        <v>0.36</v>
       </c>
       <c r="Y70">
-        <v>0.767</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="Z70">
-        <v>15.3</v>
+        <v>18.9</v>
       </c>
       <c r="AA70">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB70">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AC70">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD70" t="s">
         <v>242</v>
@@ -7797,76 +7773,76 @@
         <v>25</v>
       </c>
       <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>53</v>
+      </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <v>15</v>
+      </c>
+      <c r="K74">
         <v>3</v>
       </c>
-      <c r="G74">
-        <v>126</v>
-      </c>
-      <c r="H74">
-        <v>1649</v>
-      </c>
-      <c r="I74">
-        <v>215</v>
-      </c>
-      <c r="J74">
-        <v>461</v>
-      </c>
-      <c r="K74">
-        <v>59</v>
-      </c>
       <c r="L74">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="M74">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="Q74">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="S74">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="V74">
-        <v>540</v>
+        <v>21</v>
       </c>
       <c r="W74">
-        <v>0.466</v>
+        <v>0.533</v>
       </c>
       <c r="X74">
-        <v>0.307</v>
+        <v>0.333</v>
       </c>
       <c r="Y74">
-        <v>0.622</v>
+        <v>0.667</v>
       </c>
       <c r="Z74">
-        <v>13.1</v>
+        <v>3.8</v>
       </c>
       <c r="AA74">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="AB74">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="AC74">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD74" t="s">
         <v>242</v>
@@ -7889,73 +7865,73 @@
         <v>24</v>
       </c>
       <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>126</v>
+      </c>
+      <c r="I75">
+        <v>13</v>
+      </c>
+      <c r="J75">
+        <v>28</v>
+      </c>
+      <c r="K75">
+        <v>8</v>
+      </c>
+      <c r="L75">
+        <v>21</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>15</v>
+      </c>
+      <c r="Q75">
         <v>3</v>
       </c>
-      <c r="G75">
-        <v>50</v>
-      </c>
-      <c r="H75">
-        <v>318</v>
-      </c>
-      <c r="I75">
-        <v>32</v>
-      </c>
-      <c r="J75">
-        <v>78</v>
-      </c>
-      <c r="K75">
-        <v>24</v>
-      </c>
-      <c r="L75">
-        <v>61</v>
-      </c>
-      <c r="M75">
-        <v>8</v>
-      </c>
-      <c r="N75">
-        <v>14</v>
-      </c>
-      <c r="O75">
-        <v>6</v>
-      </c>
-      <c r="P75">
-        <v>34</v>
-      </c>
-      <c r="Q75">
-        <v>12</v>
-      </c>
       <c r="R75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
         <v>5</v>
       </c>
-      <c r="T75">
-        <v>9</v>
-      </c>
       <c r="U75">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="V75">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="W75">
-        <v>0.41</v>
+        <v>0.464</v>
       </c>
       <c r="X75">
-        <v>0.393</v>
+        <v>0.381</v>
       </c>
       <c r="Y75">
-        <v>0.571</v>
+        <v>1</v>
       </c>
       <c r="Z75">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="AA75">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AB75">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC75">
         <v>0.2</v>
@@ -7981,76 +7957,76 @@
         <v>21</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="H76">
-        <v>7437</v>
+        <v>2638</v>
       </c>
       <c r="I76">
-        <v>1822</v>
+        <v>595</v>
       </c>
       <c r="J76">
-        <v>4141</v>
+        <v>1362</v>
       </c>
       <c r="K76">
-        <v>533</v>
+        <v>187</v>
       </c>
       <c r="L76">
-        <v>1501</v>
+        <v>550</v>
       </c>
       <c r="M76">
-        <v>813</v>
+        <v>239</v>
       </c>
       <c r="N76">
-        <v>990</v>
+        <v>297</v>
       </c>
       <c r="O76">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="P76">
-        <v>893</v>
+        <v>296</v>
       </c>
       <c r="Q76">
-        <v>882</v>
+        <v>291</v>
       </c>
       <c r="R76">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="S76">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="T76">
-        <v>602</v>
+        <v>215</v>
       </c>
       <c r="U76">
-        <v>578</v>
+        <v>213</v>
       </c>
       <c r="V76">
-        <v>4990</v>
+        <v>1616</v>
       </c>
       <c r="W76">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="X76">
-        <v>0.355</v>
+        <v>0.34</v>
       </c>
       <c r="Y76">
-        <v>0.821</v>
+        <v>0.805</v>
       </c>
       <c r="Z76">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="AA76">
-        <v>22.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB76">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AC76">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AD76" t="s">
         <v>242</v>
@@ -8073,76 +8049,73 @@
         <v>24</v>
       </c>
       <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
         <v>3</v>
       </c>
-      <c r="G77">
-        <v>18</v>
-      </c>
-      <c r="H77">
-        <v>128</v>
-      </c>
-      <c r="I77">
-        <v>13</v>
-      </c>
-      <c r="J77">
-        <v>37</v>
-      </c>
-      <c r="K77">
-        <v>5</v>
-      </c>
-      <c r="L77">
-        <v>23</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <v>12</v>
-      </c>
-      <c r="Q77">
-        <v>22</v>
-      </c>
-      <c r="R77">
-        <v>2</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>10</v>
-      </c>
-      <c r="U77">
-        <v>11</v>
-      </c>
-      <c r="V77">
-        <v>33</v>
-      </c>
       <c r="W77">
-        <v>0.351</v>
+        <v>1</v>
       </c>
       <c r="X77">
-        <v>0.217</v>
-      </c>
-      <c r="Y77">
         <v>1</v>
       </c>
       <c r="Z77">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="AA77">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AB77">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD77" t="s">
         <v>242</v>
@@ -8165,76 +8138,76 @@
         <v>19</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="H78">
-        <v>3281</v>
+        <v>854</v>
       </c>
       <c r="I78">
-        <v>592</v>
+        <v>153</v>
       </c>
       <c r="J78">
-        <v>1499</v>
+        <v>425</v>
       </c>
       <c r="K78">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="L78">
-        <v>777</v>
+        <v>243</v>
       </c>
       <c r="M78">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="N78">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="O78">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="P78">
-        <v>360</v>
+        <v>66</v>
       </c>
       <c r="Q78">
-        <v>322</v>
+        <v>91</v>
       </c>
       <c r="R78">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="S78">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="T78">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="U78">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="V78">
-        <v>1638</v>
+        <v>421</v>
       </c>
       <c r="W78">
-        <v>0.395</v>
+        <v>0.36</v>
       </c>
       <c r="X78">
-        <v>0.322</v>
+        <v>0.342</v>
       </c>
       <c r="Y78">
-        <v>0.85</v>
+        <v>0.842</v>
       </c>
       <c r="Z78">
-        <v>17.2</v>
+        <v>13.6</v>
       </c>
       <c r="AA78">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB78">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD78" t="s">
         <v>242</v>
@@ -8340,76 +8313,73 @@
         <v>22</v>
       </c>
       <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>98</v>
+      </c>
+      <c r="I80">
+        <v>13</v>
+      </c>
+      <c r="J80">
+        <v>32</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="G80">
+      <c r="L80">
         <v>10</v>
       </c>
-      <c r="H80">
-        <v>127</v>
-      </c>
-      <c r="I80">
-        <v>17</v>
-      </c>
-      <c r="J80">
-        <v>42</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80">
-        <v>13</v>
-      </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80">
         <v>2</v>
       </c>
       <c r="P80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q80">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="W80">
-        <v>0.405</v>
+        <v>0.406</v>
       </c>
       <c r="X80">
-        <v>0.231</v>
-      </c>
-      <c r="Y80">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Z80">
-        <v>12.7</v>
+        <v>16.3</v>
       </c>
       <c r="AA80">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="AB80">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AC80">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD80" t="s">
         <v>242</v>
@@ -8432,76 +8402,76 @@
         <v>22</v>
       </c>
       <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
         <v>3</v>
       </c>
-      <c r="G81">
-        <v>150</v>
-      </c>
       <c r="H81">
-        <v>3397</v>
+        <v>25</v>
       </c>
       <c r="I81">
-        <v>572</v>
+        <v>4</v>
       </c>
       <c r="J81">
-        <v>1192</v>
+        <v>6</v>
       </c>
       <c r="K81">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="O81">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P81">
-        <v>308</v>
+        <v>2</v>
       </c>
       <c r="Q81">
-        <v>534</v>
+        <v>7</v>
       </c>
       <c r="R81">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="S81">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="U81">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="V81">
-        <v>1410</v>
+        <v>10</v>
       </c>
       <c r="W81">
-        <v>0.48</v>
+        <v>0.667</v>
       </c>
       <c r="X81">
-        <v>0.398</v>
+        <v>0</v>
       </c>
       <c r="Y81">
-        <v>0.8139999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z81">
-        <v>22.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA81">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB81">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="AC81">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD81" t="s">
         <v>242</v>
@@ -8524,73 +8494,73 @@
         <v>22</v>
       </c>
       <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>11</v>
+      </c>
+      <c r="H82">
+        <v>176</v>
+      </c>
+      <c r="I82">
+        <v>40</v>
+      </c>
+      <c r="J82">
+        <v>75</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>15</v>
+      </c>
+      <c r="N82">
+        <v>28</v>
+      </c>
+      <c r="O82">
+        <v>14</v>
+      </c>
+      <c r="P82">
+        <v>49</v>
+      </c>
+      <c r="Q82">
+        <v>7</v>
+      </c>
+      <c r="R82">
         <v>3</v>
       </c>
-      <c r="G82">
-        <v>46</v>
-      </c>
-      <c r="H82">
-        <v>373</v>
-      </c>
-      <c r="I82">
-        <v>90</v>
-      </c>
-      <c r="J82">
-        <v>163</v>
-      </c>
-      <c r="K82">
+      <c r="S82">
         <v>2</v>
       </c>
-      <c r="L82">
-        <v>10</v>
-      </c>
-      <c r="M82">
-        <v>44</v>
-      </c>
-      <c r="N82">
-        <v>75</v>
-      </c>
-      <c r="O82">
-        <v>35</v>
-      </c>
-      <c r="P82">
-        <v>110</v>
-      </c>
-      <c r="Q82">
-        <v>26</v>
-      </c>
-      <c r="R82">
-        <v>11</v>
-      </c>
-      <c r="S82">
-        <v>5</v>
-      </c>
       <c r="T82">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="U82">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="V82">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="W82">
-        <v>0.552</v>
+        <v>0.533</v>
       </c>
       <c r="X82">
-        <v>0.2</v>
+        <v>0.167</v>
       </c>
       <c r="Y82">
-        <v>0.587</v>
+        <v>0.536</v>
       </c>
       <c r="Z82">
-        <v>8.1</v>
+        <v>16</v>
       </c>
       <c r="AA82">
-        <v>4.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB82">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="AC82">
         <v>0.6</v>
@@ -8616,73 +8586,73 @@
         <v>24</v>
       </c>
       <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>48</v>
+      </c>
+      <c r="H83">
+        <v>522</v>
+      </c>
+      <c r="I83">
+        <v>50</v>
+      </c>
+      <c r="J83">
+        <v>149</v>
+      </c>
+      <c r="K83">
+        <v>23</v>
+      </c>
+      <c r="L83">
+        <v>65</v>
+      </c>
+      <c r="M83">
+        <v>23</v>
+      </c>
+      <c r="N83">
+        <v>39</v>
+      </c>
+      <c r="O83">
+        <v>13</v>
+      </c>
+      <c r="P83">
+        <v>71</v>
+      </c>
+      <c r="Q83">
+        <v>26</v>
+      </c>
+      <c r="R83">
+        <v>15</v>
+      </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83">
+        <v>34</v>
+      </c>
+      <c r="U83">
+        <v>45</v>
+      </c>
+      <c r="V83">
+        <v>146</v>
+      </c>
+      <c r="W83">
+        <v>0.336</v>
+      </c>
+      <c r="X83">
+        <v>0.354</v>
+      </c>
+      <c r="Y83">
+        <v>0.59</v>
+      </c>
+      <c r="Z83">
+        <v>10.9</v>
+      </c>
+      <c r="AA83">
         <v>3</v>
       </c>
-      <c r="G83">
-        <v>157</v>
-      </c>
-      <c r="H83">
-        <v>1972</v>
-      </c>
-      <c r="I83">
-        <v>241</v>
-      </c>
-      <c r="J83">
-        <v>584</v>
-      </c>
-      <c r="K83">
-        <v>94</v>
-      </c>
-      <c r="L83">
-        <v>270</v>
-      </c>
-      <c r="M83">
-        <v>98</v>
-      </c>
-      <c r="N83">
-        <v>137</v>
-      </c>
-      <c r="O83">
-        <v>41</v>
-      </c>
-      <c r="P83">
-        <v>277</v>
-      </c>
-      <c r="Q83">
-        <v>81</v>
-      </c>
-      <c r="R83">
-        <v>55</v>
-      </c>
-      <c r="S83">
-        <v>42</v>
-      </c>
-      <c r="T83">
-        <v>96</v>
-      </c>
-      <c r="U83">
-        <v>178</v>
-      </c>
-      <c r="V83">
-        <v>674</v>
-      </c>
-      <c r="W83">
-        <v>0.413</v>
-      </c>
-      <c r="X83">
-        <v>0.348</v>
-      </c>
-      <c r="Y83">
-        <v>0.715</v>
-      </c>
-      <c r="Z83">
-        <v>12.6</v>
-      </c>
-      <c r="AA83">
-        <v>4.3</v>
-      </c>
       <c r="AB83">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC83">
         <v>0.5</v>
@@ -8708,76 +8678,76 @@
         <v>19</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="H84">
-        <v>3797</v>
+        <v>1706</v>
       </c>
       <c r="I84">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="J84">
-        <v>1115</v>
+        <v>500</v>
       </c>
       <c r="K84">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="L84">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="M84">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="N84">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="O84">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="P84">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="Q84">
-        <v>543</v>
+        <v>250</v>
       </c>
       <c r="R84">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="S84">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="T84">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="U84">
-        <v>427</v>
+        <v>181</v>
       </c>
       <c r="V84">
-        <v>1066</v>
+        <v>463</v>
       </c>
       <c r="W84">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="X84">
-        <v>0.311</v>
+        <v>0.318</v>
       </c>
       <c r="Y84">
-        <v>0.783</v>
+        <v>0.721</v>
       </c>
       <c r="Z84">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="AA84">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB84">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC84">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD84" t="s">
         <v>242</v>
@@ -8800,76 +8770,76 @@
         <v>24</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="H85">
-        <v>4718</v>
+        <v>1150</v>
       </c>
       <c r="I85">
-        <v>429</v>
+        <v>120</v>
       </c>
       <c r="J85">
-        <v>959</v>
+        <v>284</v>
       </c>
       <c r="K85">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="L85">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="M85">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="N85">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="O85">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P85">
-        <v>869</v>
+        <v>236</v>
       </c>
       <c r="Q85">
-        <v>385</v>
+        <v>95</v>
       </c>
       <c r="R85">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="S85">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="T85">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="U85">
-        <v>461</v>
+        <v>105</v>
       </c>
       <c r="V85">
-        <v>1181</v>
+        <v>343</v>
       </c>
       <c r="W85">
-        <v>0.447</v>
+        <v>0.423</v>
       </c>
       <c r="X85">
-        <v>0.379</v>
+        <v>0.356</v>
       </c>
       <c r="Y85">
-        <v>0.772</v>
+        <v>0.803</v>
       </c>
       <c r="Z85">
-        <v>21.8</v>
+        <v>16.7</v>
       </c>
       <c r="AA85">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB85">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AC85">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD85" t="s">
         <v>242</v>
@@ -8892,76 +8862,76 @@
         <v>23</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="H86">
-        <v>2650</v>
+        <v>1150</v>
       </c>
       <c r="I86">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="J86">
-        <v>505</v>
+        <v>188</v>
       </c>
       <c r="K86">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="L86">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="M86">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="N86">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="O86">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="P86">
-        <v>373</v>
+        <v>161</v>
       </c>
       <c r="Q86">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="R86">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="S86">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T86">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="U86">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="V86">
-        <v>572</v>
+        <v>195</v>
       </c>
       <c r="W86">
-        <v>0.39</v>
+        <v>0.346</v>
       </c>
       <c r="X86">
-        <v>0.333</v>
+        <v>0.32</v>
       </c>
       <c r="Y86">
-        <v>0.6850000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="Z86">
-        <v>13.9</v>
+        <v>15.8</v>
       </c>
       <c r="AA86">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AB86">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AC86">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD86" t="s">
         <v>242</v>
@@ -8984,76 +8954,76 @@
         <v>22</v>
       </c>
       <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>61</v>
+      </c>
+      <c r="H87">
+        <v>672</v>
+      </c>
+      <c r="I87">
+        <v>90</v>
+      </c>
+      <c r="J87">
+        <v>186</v>
+      </c>
+      <c r="K87">
+        <v>32</v>
+      </c>
+      <c r="L87">
+        <v>87</v>
+      </c>
+      <c r="M87">
+        <v>26</v>
+      </c>
+      <c r="N87">
+        <v>46</v>
+      </c>
+      <c r="O87">
+        <v>19</v>
+      </c>
+      <c r="P87">
+        <v>120</v>
+      </c>
+      <c r="Q87">
+        <v>41</v>
+      </c>
+      <c r="R87">
+        <v>22</v>
+      </c>
+      <c r="S87">
         <v>3</v>
       </c>
-      <c r="G87">
-        <v>202</v>
-      </c>
-      <c r="H87">
-        <v>5026</v>
-      </c>
-      <c r="I87">
-        <v>716</v>
-      </c>
-      <c r="J87">
-        <v>1639</v>
-      </c>
-      <c r="K87">
-        <v>285</v>
-      </c>
-      <c r="L87">
-        <v>782</v>
-      </c>
-      <c r="M87">
-        <v>230</v>
-      </c>
-      <c r="N87">
-        <v>321</v>
-      </c>
-      <c r="O87">
-        <v>103</v>
-      </c>
-      <c r="P87">
-        <v>708</v>
-      </c>
-      <c r="Q87">
-        <v>390</v>
-      </c>
-      <c r="R87">
-        <v>136</v>
-      </c>
-      <c r="S87">
-        <v>30</v>
-      </c>
       <c r="T87">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="U87">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="V87">
-        <v>1947</v>
+        <v>238</v>
       </c>
       <c r="W87">
-        <v>0.437</v>
+        <v>0.484</v>
       </c>
       <c r="X87">
-        <v>0.364</v>
+        <v>0.368</v>
       </c>
       <c r="Y87">
-        <v>0.717</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Z87">
-        <v>24.9</v>
+        <v>11</v>
       </c>
       <c r="AA87">
-        <v>9.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB87">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AC87">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD87" t="s">
         <v>242</v>
@@ -9168,76 +9138,70 @@
         <v>20</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
         <v>2</v>
       </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-      <c r="P89">
-        <v>11</v>
-      </c>
-      <c r="Q89">
-        <v>5</v>
-      </c>
-      <c r="R89">
-        <v>3</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
+      <c r="W89">
+        <v>0.5</v>
+      </c>
+      <c r="Z89">
+        <v>4</v>
+      </c>
+      <c r="AA89">
         <v>2</v>
       </c>
-      <c r="U89">
-        <v>10</v>
-      </c>
-      <c r="V89">
-        <v>16</v>
-      </c>
-      <c r="W89">
-        <v>0.368</v>
-      </c>
-      <c r="X89">
-        <v>0.167</v>
-      </c>
-      <c r="Y89">
-        <v>0.5</v>
-      </c>
-      <c r="Z89">
-        <v>5.4</v>
-      </c>
-      <c r="AA89">
-        <v>1.8</v>
-      </c>
       <c r="AB89">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="s">
         <v>242</v>
@@ -9717,19 +9681,19 @@
         <v>22</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H95">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J95">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9765,10 +9729,10 @@
         <v>14</v>
       </c>
       <c r="V95">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W95">
-        <v>0.212</v>
+        <v>0.188</v>
       </c>
       <c r="X95">
         <v>0.105</v>
@@ -9777,10 +9741,10 @@
         <v>0.667</v>
       </c>
       <c r="Z95">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AA95">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AB95">
         <v>1.2</v>
@@ -9809,76 +9773,73 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>1237</v>
+        <v>516</v>
       </c>
       <c r="I96">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="J96">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="N96">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="O96">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P96">
-        <v>364</v>
+        <v>158</v>
       </c>
       <c r="Q96">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="R96">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="S96">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="T96">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="U96">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="V96">
-        <v>485</v>
+        <v>201</v>
       </c>
       <c r="W96">
-        <v>0.555</v>
-      </c>
-      <c r="X96">
-        <v>0.2</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="Y96">
-        <v>0.743</v>
+        <v>0.806</v>
       </c>
       <c r="Z96">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="AA96">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB96">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD96" t="s">
         <v>242</v>
@@ -9993,25 +9954,25 @@
         <v>22</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H98">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="I98">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J98">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K98">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L98">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M98">
         <v>8</v>
@@ -10020,49 +9981,49 @@
         <v>12</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P98">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q98">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S98">
         <v>2</v>
       </c>
       <c r="T98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U98">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V98">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="W98">
-        <v>0.307</v>
+        <v>0.289</v>
       </c>
       <c r="X98">
-        <v>0.31</v>
+        <v>0.289</v>
       </c>
       <c r="Y98">
         <v>0.667</v>
       </c>
       <c r="Z98">
-        <v>9.300000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AA98">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AB98">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC98">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD98" t="s">
         <v>242</v>
@@ -10085,76 +10046,70 @@
         <v>22</v>
       </c>
       <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>13</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
         <v>2</v>
       </c>
-      <c r="G99">
-        <v>8</v>
-      </c>
-      <c r="H99">
-        <v>108</v>
-      </c>
-      <c r="I99">
-        <v>20</v>
-      </c>
-      <c r="J99">
-        <v>35</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
+      <c r="P99">
+        <v>5</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="M99">
-        <v>9</v>
-      </c>
-      <c r="N99">
-        <v>14</v>
-      </c>
-      <c r="O99">
-        <v>8</v>
-      </c>
-      <c r="P99">
-        <v>25</v>
-      </c>
-      <c r="Q99">
-        <v>6</v>
-      </c>
-      <c r="R99">
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>0.333</v>
+      </c>
+      <c r="Z99">
+        <v>13</v>
+      </c>
+      <c r="AA99">
+        <v>2</v>
+      </c>
+      <c r="AB99">
         <v>5</v>
       </c>
-      <c r="S99">
-        <v>6</v>
-      </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>13</v>
-      </c>
-      <c r="V99">
-        <v>49</v>
-      </c>
-      <c r="W99">
-        <v>0.571</v>
-      </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
-      <c r="Y99">
-        <v>0.643</v>
-      </c>
-      <c r="Z99">
-        <v>13.5</v>
-      </c>
-      <c r="AA99">
-        <v>6.1</v>
-      </c>
-      <c r="AB99">
-        <v>3.1</v>
-      </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD99" t="s">
         <v>242</v>
@@ -10177,76 +10132,76 @@
         <v>21</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="H100">
-        <v>7362</v>
+        <v>2732</v>
       </c>
       <c r="I100">
-        <v>1445</v>
+        <v>544</v>
       </c>
       <c r="J100">
-        <v>2575</v>
+        <v>998</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M100">
-        <v>626</v>
+        <v>191</v>
       </c>
       <c r="N100">
-        <v>1053</v>
+        <v>341</v>
       </c>
       <c r="O100">
-        <v>425</v>
+        <v>145</v>
       </c>
       <c r="P100">
-        <v>1779</v>
+        <v>659</v>
       </c>
       <c r="Q100">
-        <v>1713</v>
+        <v>661</v>
       </c>
       <c r="R100">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="S100">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="T100">
-        <v>744</v>
+        <v>278</v>
       </c>
       <c r="U100">
-        <v>593</v>
+        <v>211</v>
       </c>
       <c r="V100">
-        <v>3518</v>
+        <v>1279</v>
       </c>
       <c r="W100">
-        <v>0.5610000000000001</v>
+        <v>0.545</v>
       </c>
       <c r="X100">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.594</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z100">
-        <v>34.4</v>
+        <v>33.7</v>
       </c>
       <c r="AA100">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="AB100">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AC100">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD100" t="s">
         <v>242</v>
@@ -10269,13 +10224,13 @@
         <v>20</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I101">
         <v>80</v>
@@ -10329,13 +10284,13 @@
         <v>1</v>
       </c>
       <c r="Z101">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="AA101">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB101">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC101">
         <v>2.1</v>
@@ -10361,76 +10316,76 @@
         <v>20</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="H102">
-        <v>4094</v>
+        <v>2049</v>
       </c>
       <c r="I102">
-        <v>754</v>
+        <v>404</v>
       </c>
       <c r="J102">
-        <v>1885</v>
+        <v>1024</v>
       </c>
       <c r="K102">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="L102">
-        <v>601</v>
+        <v>339</v>
       </c>
       <c r="M102">
+        <v>134</v>
+      </c>
+      <c r="N102">
+        <v>193</v>
+      </c>
+      <c r="O102">
+        <v>50</v>
+      </c>
+      <c r="P102">
         <v>260</v>
       </c>
-      <c r="N102">
-        <v>402</v>
-      </c>
-      <c r="O102">
-        <v>103</v>
-      </c>
-      <c r="P102">
-        <v>493</v>
-      </c>
       <c r="Q102">
-        <v>708</v>
+        <v>358</v>
       </c>
       <c r="R102">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="S102">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="T102">
-        <v>406</v>
+        <v>194</v>
       </c>
       <c r="U102">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="V102">
-        <v>1957</v>
+        <v>1048</v>
       </c>
       <c r="W102">
-        <v>0.4</v>
+        <v>0.395</v>
       </c>
       <c r="X102">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="Y102">
-        <v>0.647</v>
+        <v>0.694</v>
       </c>
       <c r="Z102">
-        <v>26.2</v>
+        <v>29.7</v>
       </c>
       <c r="AA102">
-        <v>12.5</v>
+        <v>15.2</v>
       </c>
       <c r="AB102">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AC102">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="AD102" t="s">
         <v>242</v>
@@ -10453,76 +10408,70 @@
         <v>22</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>557</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P103">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S103">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T103">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="U103">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="V103">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.398</v>
-      </c>
-      <c r="X103">
-        <v>0.262</v>
-      </c>
-      <c r="Y103">
-        <v>0.641</v>
+        <v>1</v>
       </c>
       <c r="Z103">
-        <v>11.4</v>
+        <v>2</v>
       </c>
       <c r="AA103">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="AB103">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD103" t="s">
         <v>242</v>
@@ -10545,76 +10494,76 @@
         <v>20</v>
       </c>
       <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>27</v>
+      </c>
+      <c r="H104">
+        <v>189</v>
+      </c>
+      <c r="I104">
+        <v>24</v>
+      </c>
+      <c r="J104">
+        <v>60</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>8</v>
+      </c>
+      <c r="M104">
+        <v>12</v>
+      </c>
+      <c r="N104">
+        <v>18</v>
+      </c>
+      <c r="O104">
+        <v>15</v>
+      </c>
+      <c r="P104">
+        <v>54</v>
+      </c>
+      <c r="Q104">
+        <v>14</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104">
         <v>3</v>
       </c>
-      <c r="G104">
-        <v>75</v>
-      </c>
-      <c r="H104">
-        <v>655</v>
-      </c>
-      <c r="I104">
-        <v>70</v>
-      </c>
-      <c r="J104">
-        <v>160</v>
-      </c>
-      <c r="K104">
-        <v>2</v>
-      </c>
-      <c r="L104">
-        <v>17</v>
-      </c>
-      <c r="M104">
-        <v>27</v>
-      </c>
-      <c r="N104">
-        <v>44</v>
-      </c>
-      <c r="O104">
-        <v>59</v>
-      </c>
-      <c r="P104">
-        <v>218</v>
-      </c>
-      <c r="Q104">
-        <v>56</v>
-      </c>
-      <c r="R104">
-        <v>14</v>
-      </c>
-      <c r="S104">
-        <v>11</v>
-      </c>
       <c r="T104">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="U104">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="V104">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="W104">
-        <v>0.438</v>
+        <v>0.4</v>
       </c>
       <c r="X104">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="Y104">
-        <v>0.614</v>
+        <v>0.667</v>
       </c>
       <c r="Z104">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="AA104">
         <v>2.3</v>
       </c>
       <c r="AB104">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AC104">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD104" t="s">
         <v>242</v>
@@ -10637,76 +10586,76 @@
         <v>19</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="H105">
-        <v>6969</v>
+        <v>2438</v>
       </c>
       <c r="I105">
-        <v>1364</v>
+        <v>397</v>
       </c>
       <c r="J105">
-        <v>3002</v>
+        <v>835</v>
       </c>
       <c r="K105">
-        <v>388</v>
+        <v>105</v>
       </c>
       <c r="L105">
-        <v>977</v>
+        <v>242</v>
       </c>
       <c r="M105">
-        <v>634</v>
+        <v>213</v>
       </c>
       <c r="N105">
-        <v>767</v>
+        <v>258</v>
       </c>
       <c r="O105">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="P105">
-        <v>1304</v>
+        <v>402</v>
       </c>
       <c r="Q105">
-        <v>473</v>
+        <v>128</v>
       </c>
       <c r="R105">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="S105">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="T105">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="U105">
-        <v>462</v>
+        <v>170</v>
       </c>
       <c r="V105">
-        <v>3750</v>
+        <v>1112</v>
       </c>
       <c r="W105">
-        <v>0.454</v>
+        <v>0.475</v>
       </c>
       <c r="X105">
-        <v>0.397</v>
+        <v>0.434</v>
       </c>
       <c r="Y105">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="Z105">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="AA105">
-        <v>17.1</v>
+        <v>13.9</v>
       </c>
       <c r="AB105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC105">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD105" t="s">
         <v>242</v>
@@ -10729,76 +10678,76 @@
         <v>30</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H106">
-        <v>1284</v>
+        <v>1134</v>
       </c>
       <c r="I106">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J106">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K106">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L106">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="M106">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N106">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O106">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P106">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="Q106">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="R106">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T106">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="U106">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="V106">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="W106">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="X106">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="Y106">
-        <v>0.8110000000000001</v>
+        <v>0.848</v>
       </c>
       <c r="Z106">
-        <v>21.4</v>
+        <v>25.2</v>
       </c>
       <c r="AA106">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AB106">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AC106">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AD106" t="s">
         <v>242</v>
@@ -10821,76 +10770,76 @@
         <v>25</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="H107">
-        <v>3258</v>
+        <v>936</v>
       </c>
       <c r="I107">
-        <v>493</v>
+        <v>126</v>
       </c>
       <c r="J107">
-        <v>894</v>
+        <v>233</v>
       </c>
       <c r="K107">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L107">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="M107">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="N107">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="O107">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="P107">
-        <v>891</v>
+        <v>274</v>
       </c>
       <c r="Q107">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="R107">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="S107">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="T107">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="U107">
-        <v>524</v>
+        <v>157</v>
       </c>
       <c r="V107">
-        <v>1257</v>
+        <v>331</v>
       </c>
       <c r="W107">
-        <v>0.551</v>
+        <v>0.541</v>
       </c>
       <c r="X107">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="Y107">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="Z107">
-        <v>17.3</v>
+        <v>14.9</v>
       </c>
       <c r="AA107">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="AB107">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AC107">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD107" t="s">
         <v>242</v>
@@ -10913,76 +10862,76 @@
         <v>23</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="H108">
-        <v>1469</v>
+        <v>1156</v>
       </c>
       <c r="I108">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J108">
+        <v>233</v>
+      </c>
+      <c r="K108">
+        <v>23</v>
+      </c>
+      <c r="L108">
+        <v>61</v>
+      </c>
+      <c r="M108">
+        <v>59</v>
+      </c>
+      <c r="N108">
+        <v>88</v>
+      </c>
+      <c r="O108">
+        <v>33</v>
+      </c>
+      <c r="P108">
+        <v>140</v>
+      </c>
+      <c r="Q108">
+        <v>68</v>
+      </c>
+      <c r="R108">
+        <v>48</v>
+      </c>
+      <c r="S108">
+        <v>25</v>
+      </c>
+      <c r="T108">
+        <v>53</v>
+      </c>
+      <c r="U108">
+        <v>125</v>
+      </c>
+      <c r="V108">
         <v>282</v>
       </c>
-      <c r="K108">
-        <v>26</v>
-      </c>
-      <c r="L108">
-        <v>76</v>
-      </c>
-      <c r="M108">
-        <v>84</v>
-      </c>
-      <c r="N108">
-        <v>122</v>
-      </c>
-      <c r="O108">
-        <v>38</v>
-      </c>
-      <c r="P108">
-        <v>184</v>
-      </c>
-      <c r="Q108">
-        <v>86</v>
-      </c>
-      <c r="R108">
-        <v>62</v>
-      </c>
-      <c r="S108">
-        <v>32</v>
-      </c>
-      <c r="T108">
-        <v>73</v>
-      </c>
-      <c r="U108">
-        <v>166</v>
-      </c>
-      <c r="V108">
-        <v>344</v>
-      </c>
       <c r="W108">
-        <v>0.415</v>
+        <v>0.429</v>
       </c>
       <c r="X108">
-        <v>0.342</v>
+        <v>0.377</v>
       </c>
       <c r="Y108">
-        <v>0.6889999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="Z108">
-        <v>10.7</v>
+        <v>15.8</v>
       </c>
       <c r="AA108">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB108">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AC108">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD108" t="s">
         <v>242</v>
@@ -11005,76 +10954,76 @@
         <v>23</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="H109">
-        <v>1639</v>
+        <v>851</v>
       </c>
       <c r="I109">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="J109">
-        <v>508</v>
+        <v>247</v>
       </c>
       <c r="K109">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L109">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="M109">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="N109">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="O109">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="P109">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="Q109">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="R109">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="S109">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T109">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="U109">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="V109">
-        <v>549</v>
+        <v>291</v>
       </c>
       <c r="W109">
-        <v>0.425</v>
+        <v>0.445</v>
       </c>
       <c r="X109">
-        <v>0.203</v>
+        <v>0.25</v>
       </c>
       <c r="Y109">
-        <v>0.671</v>
+        <v>0.782</v>
       </c>
       <c r="Z109">
-        <v>15.5</v>
+        <v>28.4</v>
       </c>
       <c r="AA109">
-        <v>5.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB109">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="AC109">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD109" t="s">
         <v>242</v>
@@ -11097,73 +11046,73 @@
         <v>22</v>
       </c>
       <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>16</v>
+      </c>
+      <c r="H110">
+        <v>147</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
+      <c r="J110">
+        <v>25</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
+      <c r="L110">
+        <v>17</v>
+      </c>
+      <c r="M110">
+        <v>6</v>
+      </c>
+      <c r="N110">
+        <v>6</v>
+      </c>
+      <c r="O110">
         <v>2</v>
       </c>
-      <c r="G110">
-        <v>42</v>
-      </c>
-      <c r="H110">
-        <v>395</v>
-      </c>
-      <c r="I110">
-        <v>26</v>
-      </c>
-      <c r="J110">
-        <v>64</v>
-      </c>
-      <c r="K110">
-        <v>17</v>
-      </c>
-      <c r="L110">
-        <v>41</v>
-      </c>
-      <c r="M110">
-        <v>13</v>
-      </c>
-      <c r="N110">
-        <v>15</v>
-      </c>
-      <c r="O110">
-        <v>4</v>
-      </c>
       <c r="P110">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q110">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="R110">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S110">
         <v>3</v>
       </c>
       <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>7</v>
       </c>
-      <c r="U110">
-        <v>28</v>
-      </c>
       <c r="V110">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="W110">
-        <v>0.406</v>
+        <v>0.32</v>
       </c>
       <c r="X110">
-        <v>0.415</v>
+        <v>0.412</v>
       </c>
       <c r="Y110">
-        <v>0.867</v>
+        <v>1</v>
       </c>
       <c r="Z110">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA110">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC110">
         <v>1</v>
@@ -11459,76 +11408,76 @@
         <v>23</v>
       </c>
       <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>17</v>
+      </c>
+      <c r="H114">
+        <v>139</v>
+      </c>
+      <c r="I114">
+        <v>16</v>
+      </c>
+      <c r="J114">
+        <v>33</v>
+      </c>
+      <c r="K114">
+        <v>8</v>
+      </c>
+      <c r="L114">
+        <v>13</v>
+      </c>
+      <c r="M114">
+        <v>14</v>
+      </c>
+      <c r="N114">
+        <v>20</v>
+      </c>
+      <c r="O114">
+        <v>5</v>
+      </c>
+      <c r="P114">
+        <v>26</v>
+      </c>
+      <c r="Q114">
+        <v>9</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114">
         <v>3</v>
       </c>
-      <c r="G114">
-        <v>146</v>
-      </c>
-      <c r="H114">
-        <v>3369</v>
-      </c>
-      <c r="I114">
-        <v>497</v>
-      </c>
-      <c r="J114">
-        <v>1055</v>
-      </c>
-      <c r="K114">
-        <v>117</v>
-      </c>
-      <c r="L114">
-        <v>324</v>
-      </c>
-      <c r="M114">
-        <v>265</v>
-      </c>
-      <c r="N114">
-        <v>324</v>
-      </c>
-      <c r="O114">
-        <v>72</v>
-      </c>
-      <c r="P114">
-        <v>474</v>
-      </c>
-      <c r="Q114">
-        <v>483</v>
-      </c>
-      <c r="R114">
-        <v>111</v>
-      </c>
-      <c r="S114">
-        <v>106</v>
-      </c>
       <c r="T114">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="U114">
-        <v>289</v>
+        <v>8</v>
       </c>
       <c r="V114">
-        <v>1376</v>
+        <v>54</v>
       </c>
       <c r="W114">
-        <v>0.471</v>
+        <v>0.485</v>
       </c>
       <c r="X114">
-        <v>0.361</v>
+        <v>0.615</v>
       </c>
       <c r="Y114">
-        <v>0.8179999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Z114">
-        <v>23.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA114">
-        <v>9.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB114">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC114">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD114" t="s">
         <v>242</v>
@@ -11643,76 +11592,76 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>835</v>
+        <v>707</v>
       </c>
       <c r="I116">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J116">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="K116">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L116">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M116">
         <v>13</v>
       </c>
       <c r="N116">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O116">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P116">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Q116">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="R116">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S116">
         <v>13</v>
       </c>
       <c r="T116">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U116">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="V116">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="W116">
-        <v>0.448</v>
+        <v>0.442</v>
       </c>
       <c r="X116">
-        <v>0.287</v>
+        <v>0.282</v>
       </c>
       <c r="Y116">
-        <v>0.765</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Z116">
-        <v>15.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA116">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB116">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD116" t="s">
         <v>242</v>
@@ -11824,76 +11773,76 @@
         <v>21</v>
       </c>
       <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>22</v>
+      </c>
+      <c r="H118">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>9</v>
+      </c>
+      <c r="J118">
+        <v>16</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>5</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>2</v>
+      </c>
+      <c r="P118">
+        <v>10</v>
+      </c>
+      <c r="Q118">
         <v>3</v>
       </c>
-      <c r="G118">
-        <v>102</v>
-      </c>
-      <c r="H118">
-        <v>1233</v>
-      </c>
-      <c r="I118">
-        <v>153</v>
-      </c>
-      <c r="J118">
-        <v>368</v>
-      </c>
-      <c r="K118">
-        <v>62</v>
-      </c>
-      <c r="L118">
-        <v>187</v>
-      </c>
-      <c r="M118">
-        <v>33</v>
-      </c>
-      <c r="N118">
-        <v>58</v>
-      </c>
-      <c r="O118">
-        <v>57</v>
-      </c>
-      <c r="P118">
-        <v>300</v>
-      </c>
-      <c r="Q118">
-        <v>77</v>
-      </c>
       <c r="R118">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="S118">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="T118">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="U118">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="V118">
-        <v>401</v>
+        <v>21</v>
       </c>
       <c r="W118">
-        <v>0.416</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X118">
-        <v>0.332</v>
+        <v>0.4</v>
       </c>
       <c r="Y118">
-        <v>0.569</v>
+        <v>0.5</v>
       </c>
       <c r="Z118">
-        <v>12.1</v>
+        <v>3.2</v>
       </c>
       <c r="AA118">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD118" t="s">
         <v>242</v>
@@ -12008,76 +11957,76 @@
         <v>22</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>486</v>
+        <v>235</v>
       </c>
       <c r="I120">
+        <v>26</v>
+      </c>
+      <c r="J120">
         <v>61</v>
       </c>
-      <c r="J120">
-        <v>138</v>
-      </c>
       <c r="K120">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L120">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M120">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N120">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O120">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="P120">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="Q120">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>5</v>
+      </c>
+      <c r="T120">
         <v>12</v>
       </c>
-      <c r="S120">
-        <v>12</v>
-      </c>
-      <c r="T120">
-        <v>27</v>
-      </c>
       <c r="U120">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="V120">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="W120">
-        <v>0.442</v>
+        <v>0.426</v>
       </c>
       <c r="X120">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="Y120">
         <v>0.6820000000000001</v>
       </c>
       <c r="Z120">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AA120">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AB120">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC120">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD120" t="s">
         <v>242</v>
@@ -12100,19 +12049,19 @@
         <v>21</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>1517</v>
+        <v>214</v>
       </c>
       <c r="I121">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="J121">
-        <v>470</v>
+        <v>67</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -12121,52 +12070,52 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="N121">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="O121">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P121">
-        <v>446</v>
+        <v>60</v>
       </c>
       <c r="Q121">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="R121">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="T121">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="U121">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="V121">
-        <v>674</v>
+        <v>119</v>
       </c>
       <c r="W121">
-        <v>0.581</v>
+        <v>0.731</v>
       </c>
       <c r="Y121">
-        <v>0.711</v>
+        <v>0.724</v>
       </c>
       <c r="Z121">
-        <v>13.4</v>
+        <v>6.7</v>
       </c>
       <c r="AA121">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="AB121">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="AC121">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD121" t="s">
         <v>242</v>
